--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Inclusão VMP/Hórus sem CMED.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Inclusão VMP/Hórus sem CMED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipsnt\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ips-brasil-documentos\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\BaseOBM\Inclusão VMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1674,7 +1674,7 @@
     <t>NÃO</t>
   </si>
   <si>
-    <t>Medicamentos da Hórus que não foram identificados na CMED n total 15/06/2023</t>
+    <t>Medicamentos da Hórus que não foram identificados na CMED n total 546 em 15/06/2023</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:C548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
